--- a/doc/Y优化类目.xlsx
+++ b/doc/Y优化类目.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>序号</t>
   </si>
@@ -37,54 +37,97 @@
   </si>
   <si>
     <t>模型缩小了，所以飘字的位置需要更改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>战斗界面UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>数字改为美术字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>英雄在atk和hit同时核算时候，优先播放atk动作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>精灵动作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>英雄动作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>全局美术字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>战斗场景无默认背景</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>stageIcon的外发光</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景切换前端表现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵动作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物动作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物入场前端表现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -122,16 +165,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,7 +476,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -552,10 +598,34 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1">
+        <v>12.24</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1">
+        <v>12.24</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -619,7 +689,7 @@
       <c r="G22" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -633,7 +703,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -646,7 +716,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/Y优化类目.xlsx
+++ b/doc/Y优化类目.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>序号</t>
   </si>
@@ -37,97 +37,54 @@
   </si>
   <si>
     <t>模型缩小了，所以飘字的位置需要更改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>战斗界面UI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>数字改为美术字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>英雄在atk和hit同时核算时候，优先播放atk动作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>精灵动作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>英雄动作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>全局美术字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>战斗场景无默认背景</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>stageIcon的外发光</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>I</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景切换前端表现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵动作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物动作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物入场前端表现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -165,19 +122,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +430,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -598,34 +552,10 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1">
-        <v>12.24</v>
-      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1">
-        <v>12.24</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -689,7 +619,7 @@
       <c r="G22" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -703,7 +633,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -716,7 +646,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>